--- a/src/Components/HMI/Digital Assets/02 Images for Biography/bio_master_b/bio_master_B.xlsx
+++ b/src/Components/HMI/Digital Assets/02 Images for Biography/bio_master_b/bio_master_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veera\OneDrive\Desktop\02 Deakin\Deakin Uni\04 Trimester 1 2023\02 SIT 764\03 Project ECHO\03 Echo HMI\03 Biomasters\01 Phase_1_Biomaster_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauravsharma/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010812AC-0741-4CCB-A27A-BA39660EF8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129DD123-280D-DF48-A003-2D42F1988EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="1500" windowWidth="46320" windowHeight="26060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_master_B" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="253">
   <si>
     <t>Animal</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>Dainty Nurseryfrog</t>
-  </si>
-  <si>
-    <t>Dull Frog</t>
   </si>
   <si>
     <t>Ornate Frog</t>
@@ -691,20 +688,6 @@
 • Unfortunately, like many Australian frog species, Dull Frogs are threatened by habitat loss 
 and fragmentation due to human activities such as urbanization and agriculture. 
 Conservation efforts are underway to help protect these unique and important amphibians.</t>
-  </si>
-  <si>
-    <t>• Cophixalus ornatus, commonly known as the Ornate Frog, is a small, arboreal frog species 
-belonging to the family Microhylidae. They are endemic to Papua New Guinea and can be 
-found in both lowland and mountain forests.
-• The males of this species can reach a maximum size of 25mm, while females can grow up to 
-28mm in length.
-• They have a brown or greyish-brown base color, with intricate black markings and spots 
-covering their bodies, and have distinctively bright red irises.
-• These frogs are known for their unique calling behavior, where they produce a series of high_x0002_pitched, bird-like chirping sounds.
-• Ornate Frogs are primarily arboreal and are found living in the forest canopy, where they lay 
-their eggs in tree holes or in moist crevices of bark.
-• This species is not currently considered threatened, but due to their small size and cryptic 
-coloration, they can be difficult to spot in the wild.</t>
   </si>
   <si>
     <t>• The Black-Faced Cuckoo-Shrike (Coracina novaehollandiae) is a medium-sized bird found 
@@ -1605,6 +1588,25 @@
 • Some species of mole cricket are capable of flight, while others are wingless.
 • Mole crickets are sometimes kept as pets or used as fishing bait, due to their high protein 
 content.</t>
+  </si>
+  <si>
+    <t>• Cophixalus ornatus, commonly known as the Ornate Frog, is a small, arboreal frog species 
+belonging to the family Microhylidae. They are endemic to north-eastern Queensland, Australia and can be found in both lowland and mountain forests.
+• The males of this species can reach a maximum size of 25mm, while females can grow up to 
+28mm in length.
+• They have a brown or greyish-brown base color, with intricate black markings and spots 
+covering their bodies, and have distinctively bright red irises.
+• These frogs are known for their unique calling behavior, where they produce a series of high_x0002_pitched, bird-like chirping sounds.
+• Ornate Frogs are primarily arboreal and are found living in the forest canopy, where they lay 
+their eggs in tree holes or in moist crevices of bark.
+• This species is not currently considered threatened, but due to their small size and cryptic 
+coloration, they can be difficult to spot in the wild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inelegant frog  (correct common name:- Dull Frog)</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -2502,9 +2504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2542,7 +2544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2648,7 +2650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2790,7 +2792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2800,32 +2802,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1"/>
-    <col min="15" max="15" width="144.7109375" customWidth="1"/>
-    <col min="16" max="16" width="60.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="21" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" customWidth="1"/>
+    <col min="15" max="15" width="144.6640625" customWidth="1"/>
+    <col min="16" max="16" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2858,15 +2860,15 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>70</v>
@@ -2880,6 +2882,12 @@
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L2" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A2,#REF!)</f>
         <v>#REF!</v>
@@ -2889,7 +2897,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2905,7 @@
         <v>132</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>71</v>
@@ -2911,6 +2919,12 @@
       <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L3" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A3,#REF!)</f>
         <v>#REF!</v>
@@ -2920,7 +2934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2928,7 +2942,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>72</v>
@@ -2942,6 +2956,12 @@
       <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L4" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A4,#REF!)</f>
         <v>#REF!</v>
@@ -2951,15 +2971,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>73</v>
@@ -2973,6 +2993,12 @@
       <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L5" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A5,#REF!)</f>
         <v>#REF!</v>
@@ -2982,15 +3008,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>74</v>
@@ -3004,6 +3030,12 @@
       <c r="G6" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L6" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A6,#REF!)</f>
         <v>#REF!</v>
@@ -3013,15 +3045,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>75</v>
@@ -3035,6 +3067,12 @@
       <c r="G7" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L7" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A7,#REF!)</f>
         <v>#REF!</v>
@@ -3044,15 +3082,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>76</v>
@@ -3066,6 +3104,12 @@
       <c r="G8" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L8" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A8,#REF!)</f>
         <v>#REF!</v>
@@ -3075,15 +3119,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>77</v>
@@ -3097,6 +3141,12 @@
       <c r="G9" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L9" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A9,#REF!)</f>
         <v>#REF!</v>
@@ -3106,15 +3156,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>78</v>
@@ -3128,6 +3178,12 @@
       <c r="G10" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A10,#REF!)</f>
         <v>#REF!</v>
@@ -3137,15 +3193,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>79</v>
@@ -3159,6 +3215,12 @@
       <c r="G11" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L11" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A11,#REF!)</f>
         <v>#REF!</v>
@@ -3168,15 +3230,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>80</v>
@@ -3190,6 +3252,12 @@
       <c r="G12" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L12" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A12,#REF!)</f>
         <v>#REF!</v>
@@ -3199,15 +3267,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>81</v>
@@ -3221,6 +3289,12 @@
       <c r="G13" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L13" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A13,#REF!)</f>
         <v>#REF!</v>
@@ -3230,15 +3304,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>82</v>
@@ -3252,6 +3326,12 @@
       <c r="G14" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L14" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A14,#REF!)</f>
         <v>#REF!</v>
@@ -3261,15 +3341,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>83</v>
@@ -3283,6 +3363,12 @@
       <c r="G15" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L15" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A15,#REF!)</f>
         <v>#REF!</v>
@@ -3292,15 +3378,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>84</v>
@@ -3314,6 +3400,12 @@
       <c r="G16" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L16" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A16,#REF!)</f>
         <v>#REF!</v>
@@ -3323,15 +3415,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>85</v>
@@ -3345,6 +3437,12 @@
       <c r="G17" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L17" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
         <v>#REF!</v>
@@ -3354,15 +3452,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>86</v>
@@ -3376,6 +3474,12 @@
       <c r="G18" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L18" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
         <v>#REF!</v>
@@ -3385,15 +3489,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>87</v>
@@ -3407,6 +3511,12 @@
       <c r="G19" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L19" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
         <v>#REF!</v>
@@ -3416,15 +3526,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>88</v>
@@ -3438,6 +3548,12 @@
       <c r="G20" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L20" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
         <v>#REF!</v>
@@ -3447,15 +3563,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>89</v>
@@ -3469,6 +3585,12 @@
       <c r="G21" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L21" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
         <v>#REF!</v>
@@ -3478,15 +3600,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>90</v>
@@ -3500,6 +3622,12 @@
       <c r="G22" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L22" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A22,#REF!)</f>
         <v>#REF!</v>
@@ -3509,15 +3637,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>91</v>
@@ -3526,9 +3654,15 @@
         <v>7</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L23" s="8" t="e">
@@ -3540,15 +3674,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>92</v>
@@ -3562,6 +3696,12 @@
       <c r="G24" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L24" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
         <v>#REF!</v>
@@ -3571,15 +3711,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>93</v>
@@ -3593,6 +3733,12 @@
       <c r="G25" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L25" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
         <v>#REF!</v>
@@ -3602,15 +3748,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>94</v>
@@ -3624,6 +3770,12 @@
       <c r="G26" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L26" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
         <v>#REF!</v>
@@ -3633,15 +3785,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>95</v>
@@ -3655,6 +3807,12 @@
       <c r="G27" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L27" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
         <v>#REF!</v>
@@ -3664,15 +3822,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>96</v>
@@ -3686,6 +3844,12 @@
       <c r="G28" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L28" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
         <v>#REF!</v>
@@ -3695,15 +3859,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>97</v>
@@ -3717,6 +3881,12 @@
       <c r="G29" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H29" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L29" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
         <v>#REF!</v>
@@ -3726,15 +3896,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>98</v>
@@ -3748,6 +3918,12 @@
       <c r="G30" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L30" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
         <v>#REF!</v>
@@ -3757,15 +3933,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>99</v>
@@ -3779,6 +3955,12 @@
       <c r="G31" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L31" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
         <v>#REF!</v>
@@ -3788,15 +3970,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>100</v>
@@ -3810,6 +3992,12 @@
       <c r="G32" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L32" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
         <v>#REF!</v>
@@ -3819,15 +4007,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>101</v>
@@ -3841,6 +4029,12 @@
       <c r="G33" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L33" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
         <v>#REF!</v>
@@ -3850,15 +4044,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>102</v>
@@ -3872,6 +4066,12 @@
       <c r="G34" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L34" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A34,#REF!)</f>
         <v>#REF!</v>
@@ -3881,15 +4081,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>103</v>
@@ -3903,6 +4103,12 @@
       <c r="G35" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L35" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
         <v>#REF!</v>
@@ -3912,15 +4118,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>104</v>
@@ -3934,6 +4140,12 @@
       <c r="G36" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L36" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
         <v>#REF!</v>
@@ -3943,15 +4155,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>105</v>
@@ -3965,6 +4177,12 @@
       <c r="G37" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L37" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
         <v>#REF!</v>
@@ -3974,15 +4192,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>106</v>
@@ -3996,6 +4214,12 @@
       <c r="G38" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L38" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
         <v>#REF!</v>
@@ -4005,15 +4229,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>107</v>
@@ -4027,6 +4251,12 @@
       <c r="G39" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L39" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
         <v>#REF!</v>
@@ -4036,15 +4266,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>108</v>
@@ -4058,6 +4288,12 @@
       <c r="G40" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L40" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
         <v>#REF!</v>
@@ -4067,15 +4303,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>109</v>
@@ -4089,6 +4325,12 @@
       <c r="G41" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L41" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
         <v>#REF!</v>
@@ -4098,15 +4340,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>110</v>
@@ -4120,6 +4362,12 @@
       <c r="G42" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>252</v>
+      </c>
       <c r="L42" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
         <v>#REF!</v>
@@ -4129,15 +4377,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>111</v>
@@ -4151,6 +4399,12 @@
       <c r="G43" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H43" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L43" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
         <v>#REF!</v>
@@ -4160,15 +4414,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>112</v>
@@ -4182,6 +4436,12 @@
       <c r="G44" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H44" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L44" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A44,#REF!)</f>
         <v>#REF!</v>
@@ -4191,15 +4451,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>113</v>
@@ -4208,9 +4468,15 @@
         <v>7</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L45" s="8" t="e">
@@ -4222,15 +4488,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>114</v>
@@ -4244,6 +4510,12 @@
       <c r="G46" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H46" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L46" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
         <v>#REF!</v>
@@ -4253,15 +4525,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>115</v>
@@ -4275,6 +4547,12 @@
       <c r="G47" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L47" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
         <v>#REF!</v>
@@ -4284,15 +4562,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>116</v>
@@ -4306,6 +4584,12 @@
       <c r="G48" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H48" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L48" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
         <v>#REF!</v>
@@ -4315,15 +4599,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>117</v>
@@ -4337,6 +4621,12 @@
       <c r="G49" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L49" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
         <v>#REF!</v>
@@ -4346,15 +4636,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>118</v>
@@ -4368,6 +4658,12 @@
       <c r="G50" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L50" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
         <v>#REF!</v>
@@ -4377,15 +4673,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>119</v>
@@ -4399,6 +4695,12 @@
       <c r="G51" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H51" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L51" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
         <v>#REF!</v>
@@ -4408,15 +4710,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>120</v>
@@ -4430,6 +4732,12 @@
       <c r="G52" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L52" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
         <v>#REF!</v>
@@ -4439,15 +4747,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>121</v>
@@ -4456,9 +4764,15 @@
         <v>7</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L53" s="8" t="e">
@@ -4470,15 +4784,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>122</v>
@@ -4492,6 +4806,12 @@
       <c r="G54" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L54" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
         <v>#REF!</v>
@@ -4501,15 +4821,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>123</v>
@@ -4523,6 +4843,12 @@
       <c r="G55" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L55" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
         <v>#REF!</v>
@@ -4532,15 +4858,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>124</v>
@@ -4554,6 +4880,12 @@
       <c r="G56" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H56" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L56" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
         <v>#REF!</v>
@@ -4563,15 +4895,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>125</v>
@@ -4585,6 +4917,12 @@
       <c r="G57" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H57" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L57" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
         <v>#REF!</v>
@@ -4594,15 +4932,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>126</v>
@@ -4611,9 +4949,15 @@
         <v>7</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G58" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L58" s="8" t="e">
@@ -4625,15 +4969,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>127</v>
@@ -4647,6 +4991,12 @@
       <c r="G59" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H59" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L59" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
         <v>#REF!</v>
@@ -4656,15 +5006,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>128</v>
@@ -4673,9 +5023,15 @@
         <v>7</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G60" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L60" s="8" t="e">
@@ -4687,15 +5043,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>129</v>
@@ -4709,6 +5065,12 @@
       <c r="G61" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="H61" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="L61" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
         <v>#REF!</v>
@@ -4718,7 +5080,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L62" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A24,#REF!)</f>
         <v>#REF!</v>
@@ -4728,7 +5090,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L63" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A25,#REF!)</f>
         <v>#REF!</v>
@@ -4738,7 +5100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L64" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A26,#REF!)</f>
         <v>#REF!</v>
@@ -4748,7 +5110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L65" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A27,#REF!)</f>
         <v>#REF!</v>
@@ -4758,7 +5120,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L66" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A28,#REF!)</f>
         <v>#REF!</v>
@@ -4768,7 +5130,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L67" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A29,#REF!)</f>
         <v>#REF!</v>
@@ -4778,7 +5140,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L68" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A30,#REF!)</f>
         <v>#REF!</v>
@@ -4788,7 +5150,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L69" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A31,#REF!)</f>
         <v>#REF!</v>
@@ -4798,7 +5160,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L70" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A32,#REF!)</f>
         <v>#REF!</v>
@@ -4808,7 +5170,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L71" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A33,#REF!)</f>
         <v>#REF!</v>
@@ -4818,7 +5180,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L72" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A34,#REF!)</f>
         <v>#REF!</v>
@@ -4828,7 +5190,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L73" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A35,#REF!)</f>
         <v>#REF!</v>
@@ -4838,7 +5200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L74" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A36,#REF!)</f>
         <v>#REF!</v>
@@ -4848,7 +5210,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L75" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A37,#REF!)</f>
         <v>#REF!</v>
@@ -4858,7 +5220,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L76" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A38,#REF!)</f>
         <v>#REF!</v>
@@ -4868,7 +5230,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L77" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A39,#REF!)</f>
         <v>#REF!</v>
@@ -4878,7 +5240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L78" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A40,#REF!)</f>
         <v>#REF!</v>
@@ -4888,7 +5250,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L79" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A41,#REF!)</f>
         <v>#REF!</v>
@@ -4898,7 +5260,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L80" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A42,#REF!)</f>
         <v>#REF!</v>
@@ -4908,7 +5270,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L81" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A43,#REF!)</f>
         <v>#REF!</v>
@@ -4918,7 +5280,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L82" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A44,#REF!)</f>
         <v>#REF!</v>
@@ -4928,7 +5290,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="12:15" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L83" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A45,#REF!)</f>
         <v>#REF!</v>
